--- a/zmaind/tmp.xlsx
+++ b/zmaind/tmp.xlsx
@@ -1,37 +1,144 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+  <si>
+    <t>ts_code</t>
+  </si>
+  <si>
+    <t>trade_date</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>pre_close</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>pct_chg</t>
+  </si>
+  <si>
+    <t>vol</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>000001.SZ</t>
+  </si>
+  <si>
+    <t>20250311</t>
+  </si>
+  <si>
+    <t>20250310</t>
+  </si>
+  <si>
+    <t>20250307</t>
+  </si>
+  <si>
+    <t>20250306</t>
+  </si>
+  <si>
+    <t>20250305</t>
+  </si>
+  <si>
+    <t>20250304</t>
+  </si>
+  <si>
+    <t>20250303</t>
+  </si>
+  <si>
+    <t>20250228</t>
+  </si>
+  <si>
+    <t>20250227</t>
+  </si>
+  <si>
+    <t>20250226</t>
+  </si>
+  <si>
+    <t>20250225</t>
+  </si>
+  <si>
+    <t>20250224</t>
+  </si>
+  <si>
+    <t>20250221</t>
+  </si>
+  <si>
+    <t>20250220</t>
+  </si>
+  <si>
+    <t>20250219</t>
+  </si>
+  <si>
+    <t>20250218</t>
+  </si>
+  <si>
+    <t>20250217</t>
+  </si>
+  <si>
+    <t>20250214</t>
+  </si>
+  <si>
+    <t>20250213</t>
+  </si>
+  <si>
+    <t>20250212</t>
+  </si>
+  <si>
+    <t>20250211</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +153,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,896 +469,784 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ts_code</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>trade_date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>open</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>close</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>pre_close</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>change</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>pct_chg</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>vol</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>000001.SZ</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>20250311</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
         <v>11.54</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>11.61</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>11.52</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>11.61</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>11.59</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0.02</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0.1726</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>608975.27</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>704240.464</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>000001.SZ</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>20250310</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
         <v>11.66</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>11.67</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>11.55</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>11.59</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>11.67</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>-0.08</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>-0.6855</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>663833.9300000001</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>769261.385</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>000001.SZ</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>20250307</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
         <v>11.63</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>11.69</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>11.6</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>11.67</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>11.63</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.04</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.3439</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>835536.6899999999</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>973236.6899999999</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>000001.SZ</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>20250306</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
         <v>11.69</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>11.7</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>11.6</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>11.63</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>11.66</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>-0.03</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>-0.2573</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>877407.71</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>1021780.609</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>000001.SZ</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>20250305</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
         <v>11.52</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>11.67</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>11.48</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>11.66</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>11.51</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0.15</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>1.3032</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>1080645.44</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>1254892.074</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>000001.SZ</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>20250304</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
         <v>11.47</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>11.55</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>11.44</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>11.51</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>11.51</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>683178.73</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>785447.9889999999</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>000001.SZ</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>20250303</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
         <v>11.52</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>11.56</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>11.45</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>11.51</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>11.53</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>-0.02</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>-0.1735</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>830456.95</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>955266.366</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>000001.SZ</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>20250228</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
         <v>11.58</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>11.68</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>11.5</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>11.53</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>11.62</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>-0.09</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>-0.7745</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>949088.0600000001</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>1100335.054</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>000001.SZ</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>20250227</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
         <v>11.53</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>11.63</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>11.46</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>11.62</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>11.52</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.1</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.8681</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>977309.75</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>1130386.662</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>000001.SZ</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>20250226</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
         <v>11.47</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>11.6</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>11.47</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>11.52</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>11.47</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>0.05</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.4359</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>841645.52</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>970641.211</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>000001.SZ</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>20250225</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
         <v>11.56</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>11.58</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>11.46</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>11.47</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>11.59</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>-0.12</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>-1.0354</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>917156.02</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>1055685.157</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>000001.SZ</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>20250224</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
         <v>11.63</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>11.69</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>11.56</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>11.59</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>11.64</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>-0.05</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>-0.4296</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>949956.17</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>1103548.964</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>000001.SZ</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>20250221</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
         <v>11.69</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>11.71</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>11.55</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>11.64</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>11.66</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>-0.02</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>-0.1715</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>973968.97</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>1131033.824</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>000001.SZ</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>20250220</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
         <v>11.71</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>11.76</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>11.65</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>11.66</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>11.71</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>-0.05</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>-0.427</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>784396.27</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>917231.443</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>000001.SZ</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>20250219</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
         <v>11.8</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>11.81</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>11.68</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>11.71</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>11.81</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>-0.1</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>-0.8467</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>1177748.95</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>1382467.174</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>000001.SZ</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>20250218</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17">
         <v>11.76</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>11.96</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>11.76</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>11.81</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>11.78</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>0.03</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>0.2547</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>1996610.49</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>2371071.467</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>000001.SZ</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>20250217</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
         <v>11.6</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>11.8</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>11.55</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>11.78</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>11.55</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>0.23</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>1.9913</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>2061965.42</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>2413146.067</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>000001.SZ</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>20250214</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
         <v>11.49</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>11.55</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>11.43</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>11.55</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>11.5</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>0.05</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>0.4348</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>973057.74</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>1118355.997</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>000001.SZ</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>20250213</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
         <v>11.42</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>11.55</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>11.4</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>11.5</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>11.42</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>0.08</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>0.7005</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>1358639.27</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>1560709.511</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>000001.SZ</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>20250212</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
         <v>11.41</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>11.43</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>11.34</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>11.42</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>11.42</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>988806.83</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>1125323.633</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>000001.SZ</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>20250211</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22">
         <v>11.4</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>11.47</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>11.37</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>11.42</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>11.43</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>-0.01</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>-0.08749999999999999</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>844520.03</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>963865.615</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/zmaind/tmp.xlsx
+++ b/zmaind/tmp.xlsx
@@ -49,70 +49,70 @@
     <t>amount</t>
   </si>
   <si>
-    <t>000001.SZ</t>
-  </si>
-  <si>
-    <t>20250311</t>
-  </si>
-  <si>
-    <t>20250310</t>
-  </si>
-  <si>
-    <t>20250307</t>
-  </si>
-  <si>
-    <t>20250306</t>
-  </si>
-  <si>
-    <t>20250305</t>
-  </si>
-  <si>
-    <t>20250304</t>
-  </si>
-  <si>
-    <t>20250303</t>
-  </si>
-  <si>
-    <t>20250228</t>
-  </si>
-  <si>
-    <t>20250227</t>
-  </si>
-  <si>
-    <t>20250226</t>
-  </si>
-  <si>
-    <t>20250225</t>
-  </si>
-  <si>
-    <t>20250224</t>
-  </si>
-  <si>
-    <t>20250221</t>
-  </si>
-  <si>
-    <t>20250220</t>
-  </si>
-  <si>
-    <t>20250219</t>
-  </si>
-  <si>
-    <t>20250218</t>
-  </si>
-  <si>
-    <t>20250217</t>
-  </si>
-  <si>
-    <t>20250214</t>
-  </si>
-  <si>
-    <t>20250213</t>
-  </si>
-  <si>
-    <t>20250212</t>
-  </si>
-  <si>
-    <t>20250211</t>
+    <t>000570.SZ</t>
+  </si>
+  <si>
+    <t>000678.SZ</t>
+  </si>
+  <si>
+    <t>000701.SZ</t>
+  </si>
+  <si>
+    <t>000723.SZ</t>
+  </si>
+  <si>
+    <t>000880.SZ</t>
+  </si>
+  <si>
+    <t>002234.SZ</t>
+  </si>
+  <si>
+    <t>002361.SZ</t>
+  </si>
+  <si>
+    <t>002888.SZ</t>
+  </si>
+  <si>
+    <t>600539.SH</t>
+  </si>
+  <si>
+    <t>600698.SH</t>
+  </si>
+  <si>
+    <t>600982.SH</t>
+  </si>
+  <si>
+    <t>603102.SH</t>
+  </si>
+  <si>
+    <t>603189.SH</t>
+  </si>
+  <si>
+    <t>603206.SH</t>
+  </si>
+  <si>
+    <t>603618.SH</t>
+  </si>
+  <si>
+    <t>603716.SH</t>
+  </si>
+  <si>
+    <t>603819.SH</t>
+  </si>
+  <si>
+    <t>603900.SH</t>
+  </si>
+  <si>
+    <t>605011.SH</t>
+  </si>
+  <si>
+    <t>605100.SH</t>
+  </si>
+  <si>
+    <t>605118.SH</t>
+  </si>
+  <si>
+    <t>20250314</t>
   </si>
 </sst>
 </file>
@@ -516,734 +516,734 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>11.54</v>
+        <v>6.8</v>
       </c>
       <c r="D2">
-        <v>11.61</v>
+        <v>6.8</v>
       </c>
       <c r="E2">
-        <v>11.52</v>
+        <v>6.36</v>
       </c>
       <c r="F2">
-        <v>11.61</v>
+        <v>6.43</v>
       </c>
       <c r="G2">
-        <v>11.59</v>
+        <v>6.82</v>
       </c>
       <c r="H2">
-        <v>0.02</v>
+        <v>-0.39</v>
       </c>
       <c r="I2">
-        <v>0.1726</v>
+        <v>-5.7185</v>
       </c>
       <c r="J2">
-        <v>608975.27</v>
+        <v>1004707.3</v>
       </c>
       <c r="K2">
-        <v>704240.464</v>
+        <v>652648.912</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>11.66</v>
+        <v>12.49</v>
       </c>
       <c r="D3">
-        <v>11.67</v>
+        <v>14.5</v>
       </c>
       <c r="E3">
-        <v>11.55</v>
+        <v>12.46</v>
       </c>
       <c r="F3">
-        <v>11.59</v>
+        <v>12.91</v>
       </c>
       <c r="G3">
-        <v>11.67</v>
+        <v>13.84</v>
       </c>
       <c r="H3">
-        <v>-0.08</v>
+        <v>-0.93</v>
       </c>
       <c r="I3">
-        <v>-0.6855</v>
+        <v>-6.7197</v>
       </c>
       <c r="J3">
-        <v>663833.9300000001</v>
+        <v>1495964.41</v>
       </c>
       <c r="K3">
-        <v>769261.385</v>
+        <v>1962057.731</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>11.63</v>
+        <v>5.94</v>
       </c>
       <c r="D4">
-        <v>11.69</v>
+        <v>6.06</v>
       </c>
       <c r="E4">
-        <v>11.6</v>
+        <v>5.42</v>
       </c>
       <c r="F4">
-        <v>11.67</v>
+        <v>5.62</v>
       </c>
       <c r="G4">
-        <v>11.63</v>
+        <v>5.8</v>
       </c>
       <c r="H4">
-        <v>0.04</v>
+        <v>-0.18</v>
       </c>
       <c r="I4">
-        <v>0.3439</v>
+        <v>-3.1034</v>
       </c>
       <c r="J4">
-        <v>835536.6899999999</v>
+        <v>990328.54</v>
       </c>
       <c r="K4">
-        <v>973236.6899999999</v>
+        <v>560851.4350000001</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>11.69</v>
+        <v>4.99</v>
       </c>
       <c r="D5">
-        <v>11.7</v>
+        <v>5.3</v>
       </c>
       <c r="E5">
-        <v>11.6</v>
+        <v>4.9</v>
       </c>
       <c r="F5">
-        <v>11.63</v>
+        <v>5.1</v>
       </c>
       <c r="G5">
-        <v>11.66</v>
+        <v>5.06</v>
       </c>
       <c r="H5">
-        <v>-0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I5">
-        <v>-0.2573</v>
+        <v>0.7905</v>
       </c>
       <c r="J5">
-        <v>877407.71</v>
+        <v>3513633.79</v>
       </c>
       <c r="K5">
-        <v>1021780.609</v>
+        <v>1793909.515</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>11.52</v>
+        <v>38.01</v>
       </c>
       <c r="D6">
-        <v>11.67</v>
+        <v>39.47</v>
       </c>
       <c r="E6">
-        <v>11.48</v>
+        <v>36.27</v>
       </c>
       <c r="F6">
-        <v>11.66</v>
+        <v>38.2</v>
       </c>
       <c r="G6">
-        <v>11.51</v>
+        <v>40.3</v>
       </c>
       <c r="H6">
-        <v>0.15</v>
+        <v>-2.1</v>
       </c>
       <c r="I6">
-        <v>1.3032</v>
+        <v>-5.2109</v>
       </c>
       <c r="J6">
-        <v>1080645.44</v>
+        <v>457199.05</v>
       </c>
       <c r="K6">
-        <v>1254892.074</v>
+        <v>1714008.221</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>11.47</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D7">
-        <v>11.55</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="E7">
-        <v>11.44</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>11.51</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="G7">
-        <v>11.51</v>
+        <v>9.19</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>-1.741</v>
       </c>
       <c r="J7">
-        <v>683178.73</v>
+        <v>267657.29</v>
       </c>
       <c r="K7">
-        <v>785447.9889999999</v>
+        <v>243645.501</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>11.52</v>
+        <v>7.21</v>
       </c>
       <c r="D8">
-        <v>11.56</v>
+        <v>7.73</v>
       </c>
       <c r="E8">
-        <v>11.45</v>
+        <v>6.94</v>
       </c>
       <c r="F8">
-        <v>11.51</v>
+        <v>6.99</v>
       </c>
       <c r="G8">
-        <v>11.53</v>
+        <v>7.03</v>
       </c>
       <c r="H8">
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
       <c r="I8">
-        <v>-0.1735</v>
+        <v>-0.569</v>
       </c>
       <c r="J8">
-        <v>830456.95</v>
+        <v>2406025.87</v>
       </c>
       <c r="K8">
-        <v>955266.366</v>
+        <v>1762539.288</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C9">
-        <v>11.58</v>
+        <v>20.38</v>
       </c>
       <c r="D9">
-        <v>11.68</v>
+        <v>20.52</v>
       </c>
       <c r="E9">
-        <v>11.5</v>
+        <v>19.38</v>
       </c>
       <c r="F9">
-        <v>11.53</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>11.62</v>
+        <v>20.74</v>
       </c>
       <c r="H9">
-        <v>-0.09</v>
+        <v>-0.74</v>
       </c>
       <c r="I9">
-        <v>-0.7745</v>
+        <v>-3.568</v>
       </c>
       <c r="J9">
-        <v>949088.0600000001</v>
+        <v>209733.2</v>
       </c>
       <c r="K9">
-        <v>1100335.054</v>
+        <v>416218.855</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>11.53</v>
+        <v>14.5</v>
       </c>
       <c r="D10">
-        <v>11.63</v>
+        <v>15.03</v>
       </c>
       <c r="E10">
-        <v>11.46</v>
+        <v>14.26</v>
       </c>
       <c r="F10">
-        <v>11.62</v>
+        <v>14.26</v>
       </c>
       <c r="G10">
-        <v>11.52</v>
+        <v>15.84</v>
       </c>
       <c r="H10">
-        <v>0.1</v>
+        <v>-1.58</v>
       </c>
       <c r="I10">
-        <v>0.8681</v>
+        <v>-9.9747</v>
       </c>
       <c r="J10">
-        <v>977309.75</v>
+        <v>469888.84</v>
       </c>
       <c r="K10">
-        <v>1130386.662</v>
+        <v>678123.6679999999</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C11">
-        <v>11.47</v>
+        <v>7.47</v>
       </c>
       <c r="D11">
-        <v>11.6</v>
+        <v>7.88</v>
       </c>
       <c r="E11">
-        <v>11.47</v>
+        <v>6.92</v>
       </c>
       <c r="F11">
-        <v>11.52</v>
+        <v>7.27</v>
       </c>
       <c r="G11">
-        <v>11.47</v>
+        <v>7.39</v>
       </c>
       <c r="H11">
-        <v>0.05</v>
+        <v>-0.12</v>
       </c>
       <c r="I11">
-        <v>0.4359</v>
+        <v>-1.6238</v>
       </c>
       <c r="J11">
-        <v>841645.52</v>
+        <v>1169783.09</v>
       </c>
       <c r="K11">
-        <v>970641.211</v>
+        <v>847644.899</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C12">
-        <v>11.56</v>
+        <v>4.94</v>
       </c>
       <c r="D12">
-        <v>11.58</v>
+        <v>5.1</v>
       </c>
       <c r="E12">
-        <v>11.46</v>
+        <v>4.74</v>
       </c>
       <c r="F12">
-        <v>11.47</v>
+        <v>4.85</v>
       </c>
       <c r="G12">
-        <v>11.59</v>
+        <v>4.84</v>
       </c>
       <c r="H12">
-        <v>-0.12</v>
+        <v>0.01</v>
       </c>
       <c r="I12">
-        <v>-1.0354</v>
+        <v>0.2066</v>
       </c>
       <c r="J12">
-        <v>917156.02</v>
+        <v>1813296.17</v>
       </c>
       <c r="K12">
-        <v>1055685.157</v>
+        <v>885820.123</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C13">
-        <v>11.63</v>
+        <v>39.6</v>
       </c>
       <c r="D13">
-        <v>11.69</v>
+        <v>42.85</v>
       </c>
       <c r="E13">
-        <v>11.56</v>
+        <v>38.19</v>
       </c>
       <c r="F13">
-        <v>11.59</v>
+        <v>40.37</v>
       </c>
       <c r="G13">
-        <v>11.64</v>
+        <v>39.45</v>
       </c>
       <c r="H13">
-        <v>-0.05</v>
+        <v>0.92</v>
       </c>
       <c r="I13">
-        <v>-0.4296</v>
+        <v>2.3321</v>
       </c>
       <c r="J13">
-        <v>949956.17</v>
+        <v>62296.12</v>
       </c>
       <c r="K13">
-        <v>1103548.964</v>
+        <v>247633.68</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C14">
-        <v>11.69</v>
+        <v>19.88</v>
       </c>
       <c r="D14">
-        <v>11.71</v>
+        <v>20.06</v>
       </c>
       <c r="E14">
-        <v>11.55</v>
+        <v>18.89</v>
       </c>
       <c r="F14">
-        <v>11.64</v>
+        <v>19.23</v>
       </c>
       <c r="G14">
-        <v>11.66</v>
+        <v>19.51</v>
       </c>
       <c r="H14">
-        <v>-0.02</v>
+        <v>-0.28</v>
       </c>
       <c r="I14">
-        <v>-0.1715</v>
+        <v>-1.4352</v>
       </c>
       <c r="J14">
-        <v>973968.97</v>
+        <v>525836.39</v>
       </c>
       <c r="K14">
-        <v>1131033.824</v>
+        <v>1018919.884</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C15">
-        <v>11.71</v>
+        <v>23.2</v>
       </c>
       <c r="D15">
-        <v>11.76</v>
+        <v>25.2</v>
       </c>
       <c r="E15">
-        <v>11.65</v>
+        <v>22.1</v>
       </c>
       <c r="F15">
-        <v>11.66</v>
+        <v>22.1</v>
       </c>
       <c r="G15">
-        <v>11.71</v>
+        <v>24.56</v>
       </c>
       <c r="H15">
-        <v>-0.05</v>
+        <v>-2.46</v>
       </c>
       <c r="I15">
-        <v>-0.427</v>
+        <v>-10.0163</v>
       </c>
       <c r="J15">
-        <v>784396.27</v>
+        <v>527336.63</v>
       </c>
       <c r="K15">
-        <v>917231.443</v>
+        <v>1236220.661</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C16">
-        <v>11.8</v>
+        <v>8.58</v>
       </c>
       <c r="D16">
-        <v>11.81</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="E16">
-        <v>11.68</v>
+        <v>8.35</v>
       </c>
       <c r="F16">
-        <v>11.71</v>
+        <v>8.56</v>
       </c>
       <c r="G16">
-        <v>11.81</v>
+        <v>9.26</v>
       </c>
       <c r="H16">
-        <v>-0.1</v>
+        <v>-0.7</v>
       </c>
       <c r="I16">
-        <v>-0.8467</v>
+        <v>-7.5594</v>
       </c>
       <c r="J16">
-        <v>1177748.95</v>
+        <v>1176844.85</v>
       </c>
       <c r="K16">
-        <v>1382467.174</v>
+        <v>1022967.431</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C17">
-        <v>11.76</v>
+        <v>13.85</v>
       </c>
       <c r="D17">
-        <v>11.96</v>
+        <v>14.47</v>
       </c>
       <c r="E17">
-        <v>11.76</v>
+        <v>13.16</v>
       </c>
       <c r="F17">
-        <v>11.81</v>
+        <v>13.42</v>
       </c>
       <c r="G17">
-        <v>11.78</v>
+        <v>14.62</v>
       </c>
       <c r="H17">
-        <v>0.03</v>
+        <v>-1.2</v>
       </c>
       <c r="I17">
-        <v>0.2547</v>
+        <v>-8.2079</v>
       </c>
       <c r="J17">
-        <v>1996610.49</v>
+        <v>682867.4300000001</v>
       </c>
       <c r="K17">
-        <v>2371071.467</v>
+        <v>929444.252</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C18">
-        <v>11.6</v>
+        <v>17.7</v>
       </c>
       <c r="D18">
-        <v>11.8</v>
+        <v>17.7</v>
       </c>
       <c r="E18">
-        <v>11.55</v>
+        <v>15.7</v>
       </c>
       <c r="F18">
-        <v>11.78</v>
+        <v>15.82</v>
       </c>
       <c r="G18">
-        <v>11.55</v>
+        <v>16.09</v>
       </c>
       <c r="H18">
-        <v>0.23</v>
+        <v>-0.27</v>
       </c>
       <c r="I18">
-        <v>1.9913</v>
+        <v>-1.6781</v>
       </c>
       <c r="J18">
-        <v>2061965.42</v>
+        <v>334906.47</v>
       </c>
       <c r="K18">
-        <v>2413146.067</v>
+        <v>568121.861</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19">
-        <v>11.49</v>
+        <v>6.8</v>
       </c>
       <c r="D19">
-        <v>11.55</v>
+        <v>7.1</v>
       </c>
       <c r="E19">
-        <v>11.43</v>
+        <v>6.54</v>
       </c>
       <c r="F19">
-        <v>11.55</v>
+        <v>6.62</v>
       </c>
       <c r="G19">
-        <v>11.5</v>
+        <v>6.75</v>
       </c>
       <c r="H19">
-        <v>0.05</v>
+        <v>-0.13</v>
       </c>
       <c r="I19">
-        <v>0.4348</v>
+        <v>-1.9259</v>
       </c>
       <c r="J19">
-        <v>973057.74</v>
+        <v>591727.05</v>
       </c>
       <c r="K19">
-        <v>1118355.997</v>
+        <v>400518.996</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C20">
-        <v>11.42</v>
+        <v>26.28</v>
       </c>
       <c r="D20">
-        <v>11.55</v>
+        <v>26.49</v>
       </c>
       <c r="E20">
-        <v>11.4</v>
+        <v>25.08</v>
       </c>
       <c r="F20">
-        <v>11.5</v>
+        <v>25.49</v>
       </c>
       <c r="G20">
-        <v>11.42</v>
+        <v>26.28</v>
       </c>
       <c r="H20">
-        <v>0.08</v>
+        <v>-0.79</v>
       </c>
       <c r="I20">
-        <v>0.7005</v>
+        <v>-3.0061</v>
       </c>
       <c r="J20">
-        <v>1358639.27</v>
+        <v>226378</v>
       </c>
       <c r="K20">
-        <v>1560709.511</v>
+        <v>576165.273</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21">
-        <v>11.41</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>11.43</v>
+        <v>30.79</v>
       </c>
       <c r="E21">
-        <v>11.34</v>
+        <v>28.12</v>
       </c>
       <c r="F21">
-        <v>11.42</v>
+        <v>28.63</v>
       </c>
       <c r="G21">
-        <v>11.42</v>
+        <v>31.24</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>-2.61</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>-8.354699999999999</v>
       </c>
       <c r="J21">
-        <v>988806.83</v>
+        <v>395232.84</v>
       </c>
       <c r="K21">
-        <v>1125323.633</v>
+        <v>1160106.446</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
       </c>
       <c r="C22">
-        <v>11.4</v>
+        <v>22.57</v>
       </c>
       <c r="D22">
-        <v>11.47</v>
+        <v>24.32</v>
       </c>
       <c r="E22">
-        <v>11.37</v>
+        <v>22.12</v>
       </c>
       <c r="F22">
-        <v>11.42</v>
+        <v>22.85</v>
       </c>
       <c r="G22">
-        <v>11.43</v>
+        <v>23.29</v>
       </c>
       <c r="H22">
-        <v>-0.01</v>
+        <v>-0.44</v>
       </c>
       <c r="I22">
-        <v>-0.08749999999999999</v>
+        <v>-1.8892</v>
       </c>
       <c r="J22">
-        <v>844520.03</v>
+        <v>208181.65</v>
       </c>
       <c r="K22">
-        <v>963865.615</v>
+        <v>481957.168</v>
       </c>
     </row>
   </sheetData>
